--- a/Tables/Regional- Appendix.xlsx
+++ b/Tables/Regional- Appendix.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2014-01-22</t>
         </is>
       </c>
       <c r="Z5" s="1" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AD5" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE5" s="1" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1901,22 +1901,22 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>1996-07-03</t>
+          <t>2010-01-12</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>2006-01-19</t>
+          <t>2010-01-12</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE11" s="1" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-19 S4</t>
+          <t>R-19 S5</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -2133,12 +2133,12 @@
       <c r="I13" s="1" t="inlineStr"/>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>1410.2</t>
+          <t>1582.6</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1417.400</t>
+          <t>1589.800</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -2177,22 +2177,22 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2001-07-12</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.5076</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-19 S5</t>
+          <t>R-19 S6</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2269,12 +2269,12 @@
       <c r="I14" s="1" t="inlineStr"/>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>1582.6</t>
+          <t>1726.8</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1589.800</t>
+          <t>1733.900</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -2313,17 +2313,17 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>3.2367</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2001-07-12</t>
+          <t>2009-05-28</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>5.5076</t>
+          <t>1.3476</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -2357,11 +2357,7 @@
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
-      <c r="AF14" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF14" s="1" t="inlineStr"/>
       <c r="AG14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2372,7 +2368,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-19 S6</t>
+          <t>R-19 S7</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2405,12 +2401,12 @@
       <c r="I15" s="1" t="inlineStr"/>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>1726.8</t>
+          <t>1832.4</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1733.900</t>
+          <t>1839.500</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2449,17 +2445,17 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>3.2367</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>2009-05-28</t>
+          <t>2001-03-29</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>1.3476</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2489,11 +2485,15 @@
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr"/>
-      <c r="AF15" s="1" t="inlineStr"/>
+      <c r="AF15" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG15" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2504,7 +2504,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R-19 S7</t>
+          <t>R-20 S3</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2514,22 +2514,22 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>7066.300</t>
+          <t>6694.35</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr"/>
@@ -2537,28 +2537,24 @@
       <c r="I16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>1832.4</t>
+          <t>1328.8</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1839.500</t>
+          <t>1336.500</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N16" s="1" t="inlineStr"/>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
@@ -2573,7 +2569,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T16" s="1" t="inlineStr"/>
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2001-03-29</t>
+          <t>2004-05-05</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>2010-06-04</t>
+          <t>2005-07-18</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
@@ -2621,15 +2621,11 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr"/>
-      <c r="AF16" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF16" s="1" t="inlineStr"/>
       <c r="AG16" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2640,7 +2636,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-20 S3</t>
+          <t>R-22 S1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2650,22 +2646,22 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>6694.35</t>
+          <t>6650.5</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr"/>
@@ -2673,17 +2669,17 @@
       <c r="I17" s="1" t="inlineStr"/>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>1328.8</t>
+          <t>872.3</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>1336.500</t>
+          <t>914.200</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
+          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR., original x, y = 1645327, 1757112</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr"/>
@@ -2717,22 +2713,22 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>2004-05-05</t>
+          <t>2005-06-27</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.8152</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>2005-07-18</t>
+          <t>2009-07-02</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
@@ -2757,11 +2753,15 @@
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr"/>
-      <c r="AF17" s="1" t="inlineStr"/>
+      <c r="AF17" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG17" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2772,7 +2772,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-22 S1</t>
+          <t>R-22 S2</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2805,17 +2805,17 @@
       <c r="I18" s="1" t="inlineStr"/>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>872.3</t>
+          <t>947</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>914.200</t>
+          <t>988.900</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR., original x, y = 1645327, 1757112</t>
+          <t>original x, y = 1645327, 1757112, Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr"/>
@@ -2849,22 +2849,22 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2005-06-27</t>
+          <t>2001-12-03</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>2.8152</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2009-07-02</t>
+          <t>2009-02-26</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr"/>
@@ -2908,7 +2908,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R-22 S2</t>
+          <t>R-22 S3</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr"/>
@@ -2941,12 +2941,12 @@
       <c r="I19" s="1" t="inlineStr"/>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1272.2</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>988.900</t>
+          <t>1278.900</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2985,22 +2985,22 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>2001-12-03</t>
+          <t>2001-06-21</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>2009-02-26</t>
+          <t>2009-02-27</t>
         </is>
       </c>
       <c r="Z19" s="1" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AD19" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE19" s="1" t="inlineStr"/>
@@ -3044,7 +3044,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R-22 S3</t>
+          <t>R-22 S4</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
+          <t>Tb2</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr"/>
@@ -3077,12 +3077,12 @@
       <c r="I20" s="1" t="inlineStr"/>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>1272.2</t>
+          <t>1378.2</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1278.900</t>
+          <t>1384.900</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -3121,22 +3121,22 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2001-06-21</t>
+          <t>2007-03-22</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.303</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>2009-02-27</t>
+          <t>2009-02-26</t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr"/>
@@ -3180,7 +3180,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R-22 S4</t>
+          <t>R-22 S5</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>Tb2</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr"/>
@@ -3213,12 +3213,12 @@
       <c r="I21" s="1" t="inlineStr"/>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>1378.2</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1384.900</t>
+          <t>1452.300</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3257,22 +3257,22 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>17.1589</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2007-03-22</t>
+          <t>2009-05-17</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>6.303</t>
+          <t>5.3768</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2009-02-26</t>
+          <t>2009-05-26</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr"/>
@@ -3316,7 +3316,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-22 S5</t>
+          <t>R-32 S3</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -3326,22 +3326,22 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>6650.5</t>
+          <t>6637.630</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr"/>
@@ -3349,21 +3349,25 @@
       <c r="I22" s="1" t="inlineStr"/>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>1447.3</t>
+          <t>972.9</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1452.300</t>
+          <t>980.600</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>original x, y = 1645327, 1757112, Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
+          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr"/>
-      <c r="N22" s="1" t="inlineStr"/>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -3381,11 +3385,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T22" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T22" s="1" t="inlineStr"/>
       <c r="U22" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3393,22 +3393,22 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>17.1589</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2009-05-17</t>
+          <t>2006-08-30</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>5.3768</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2009-05-26</t>
+          <t>2007-07-06</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-32 S3</t>
+          <t>R-54 S1</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.83609</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.25544</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>6637.630</t>
+          <t>6679.85</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -3485,25 +3485,21 @@
       <c r="I23" s="1" t="inlineStr"/>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>972.9</t>
+          <t>830</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>980.600</t>
+          <t>840.000</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
+          <t>Brass Cap location, Brass cap location, Brass Cap location</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr"/>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N23" s="1" t="inlineStr"/>
       <c r="O23" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -3521,7 +3517,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T23" s="1" t="inlineStr"/>
+      <c r="T23" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3529,22 +3529,22 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>2006-08-30</t>
+          <t>2010-02-15</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2007-07-06</t>
+          <t>2011-11-02</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr"/>
@@ -3579,142 +3579,6 @@
         </is>
       </c>
       <c r="AG23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substantial
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>R-54 S1</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Regional</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>35.83609</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>-106.25544</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>6679.85</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr"/>
-      <c r="H24" s="1" t="inlineStr"/>
-      <c r="I24" s="1" t="inlineStr"/>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>840.000</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap location, Brass cap location, Brass Cap location</t>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr"/>
-      <c r="N24" s="1" t="inlineStr"/>
-      <c r="O24" s="1" t="inlineStr">
-        <is>
-          <t>TA-54</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q24" s="1" t="inlineStr"/>
-      <c r="R24" s="1" t="inlineStr"/>
-      <c r="S24" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T24" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
-      <c r="U24" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V24" s="1" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="W24" s="1" t="inlineStr">
-        <is>
-          <t>2010-02-15</t>
-        </is>
-      </c>
-      <c r="X24" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Y24" s="1" t="inlineStr">
-        <is>
-          <t>2011-11-02</t>
-        </is>
-      </c>
-      <c r="Z24" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA24" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB24" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC24" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD24" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AE24" s="1" t="inlineStr"/>
-      <c r="AF24" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG24" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -3732,7 +3596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3884,317 +3748,351 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>R-15 OB</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>35.85991</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>-106.26724</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>7/22/99</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-15 OB</t>
+          <t>R-61 S2</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>35.85991</t>
+          <t>35.85758</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>-106.26724</t>
+          <t>-106.2612</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>1220.4 - 1241</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>34.2018</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>7/22/99</t>
+          <t>2/8/12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-61 S2</t>
+          <t>Test Well 8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>35.85758</t>
+          <t>35.8633</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>-106.2612</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
+          <t>-106.27647</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>12/15/60</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>1220.4 - 1241</t>
+          <t>953 - 1065</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>34.2018</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>2/8/12</t>
+          <t>6/6/07</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Test Well 8</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>35.8633</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>-106.27647</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>12/15/60</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>1065</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>953 - 1065</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>17.1</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>6/6/07</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>R-5 S4</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>35.87307</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>-106.22877</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>858.7 - 863.7</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>7.7584</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>1/10/08</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-5 S4</t>
+          <t>R-7 S3</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>858.7 - 863.7</t>
+          <t>895.5 - 937.4</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>7.7584</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>1/10/08</t>
+          <t>5/30/01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-7 S3</t>
+          <t>Test Well 1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87036</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
+          <t>-106.21751</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>1/3/50</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>895.5 - 937.4</t>
+          <t>632 - 642</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>5/30/01</t>
+          <t>9/1/98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Test Well 1</t>
+          <t>Test Well 2</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.87036</t>
+          <t>35.88462</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.21751</t>
+          <t>-106.27088</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>1/3/50</t>
+          <t>12/15/90</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>834</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>632 - 642</t>
+          <t>774 - 824</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>9/1/98</t>
+          <t>5/3/00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Test Well 2</t>
+          <t>Test Well 3</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>35.88462</t>
+          <t>35.87328</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>-106.27088</t>
+          <t>-106.25908</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>12/15/90</t>
+          <t>11/20/49</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>815</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>774 - 824</t>
+          <t>805 - 815</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>5/3/00</t>
+          <t>1/12/10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Test Well 3</t>
+          <t>Test Well 4</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.87328</t>
+          <t>35.88574</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.25908</t>
+          <t>-106.30533</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>11/20/49</t>
+          <t>3/8/50</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>805 - 815</t>
+          <t>1195 - 1205</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -4206,49 +4104,41 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Test Well 4</t>
+          <t>R-19 S5</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.88574</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.30533</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>3/8/50</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>1205</t>
-        </is>
-      </c>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr"/>
+      <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>1195 - 1205</t>
+          <t>1582.6 - 1589.8</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>7/3/96</t>
+          <t>7/12/01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-19 S4</t>
+          <t>R-19 S6</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -4265,24 +4155,24 @@
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1410.2 - 1417.4</t>
+          <t>1726.8 - 1733.9</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>3.2367</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>8/16/06</t>
+          <t>5/28/09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R-19 S5</t>
+          <t>R-19 S7</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -4299,126 +4189,126 @@
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>1582.6 - 1589.8</t>
+          <t>1832.4 - 1839.5</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>7/12/01</t>
+          <t>3/29/01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R-19 S6</t>
+          <t>R-20 S3</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>1726.8 - 1733.9</t>
+          <t>1328.8 - 1336.5</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>3.2367</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>5/28/09</t>
+          <t>5/5/04</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R-19 S7</t>
+          <t>R-22 S1</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr"/>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>1832.4 - 1839.5</t>
+          <t>872.3 - 914.2</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>3/29/01</t>
+          <t>6/27/05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-20 S3</t>
+          <t>R-22 S2</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr"/>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>1328.8 - 1336.5</t>
+          <t>947 - 988.9</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>5/5/04</t>
+          <t>12/3/01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-22 S1</t>
+          <t>R-22 S3</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -4435,24 +4325,24 @@
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>872.3 - 914.2</t>
+          <t>1272.2 - 1278.9</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>6/27/05</t>
+          <t>6/21/01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R-22 S2</t>
+          <t>R-22 S4</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -4469,24 +4359,24 @@
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>947 - 988.9</t>
+          <t>1378.2 - 1384.9</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>12/3/01</t>
+          <t>3/22/07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-22 S3</t>
+          <t>R-22 S5</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -4503,41 +4393,41 @@
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>1272.2 - 1278.9</t>
+          <t>1447.3 - 1452.3</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>17.1589</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>6/21/01</t>
+          <t>5/17/09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-22 S4</t>
+          <t>R-32 S3</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>1378.2 - 1384.9</t>
+          <t>972.9 - 980.6</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -4547,119 +4437,50 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>3/22/07</t>
+          <t>8/30/06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-22 S5</t>
+          <t>R-54 S1</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83609</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.25544</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>1447.3 - 1452.3</t>
+          <t>830 - 840</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>17.1589</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>5/17/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>R-32 S3</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>35.83095</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>-106.24872</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>972.9 - 980.6</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>8/30/06</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>R-54 S1</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>35.83609</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>-106.25544</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr"/>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>830 - 840</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
           <t>2/15/10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Regional- Appendix.xlsx
+++ b/Tables/Regional- Appendix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1613,12 +1613,12 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>1998-09-01</t>
+          <t>2005-03-23</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2000-05-03</t>
+          <t>2005-03-22</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>2010-01-12</t>
+          <t>2005-03-21</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>1996-07-03</t>
+          <t>2002-05-17</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
@@ -3966,12 +3966,12 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>9/1/98</t>
+          <t>3/23/05</t>
         </is>
       </c>
     </row>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>5/3/00</t>
+          <t>3/22/05</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>1/12/10</t>
+          <t>3/21/05</t>
         </is>
       </c>
     </row>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>7/3/96</t>
+          <t>5/17/02</t>
         </is>
       </c>
     </row>

--- a/Tables/Regional- Appendix.xlsx
+++ b/Tables/Regional- Appendix.xlsx
@@ -1051,12 +1051,12 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t>2014-01-22</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="Z5" s="1" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2005-12-20</t>
+          <t>2005-05-04</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>2010-01-12</t>
+          <t>2006-01-19</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2005-12-19</t>
+          <t>2002-05-17</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.441</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2009-02-26</t>
+          <t>2008-12-18</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -3539,12 +3539,12 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1334</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2011-11-02</t>
+          <t>2011-07-12</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">

--- a/Tables/Regional- Appendix.xlsx
+++ b/Tables/Regional- Appendix.xlsx
@@ -675,7 +675,7 @@
       </c>
       <c r="AB2" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AC2" s="1" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>2.5001</t>
+          <t>2.2842</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE11" s="1" t="inlineStr"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>5.5076</t>
+          <t>3.7858</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>5.3768</t>
+          <t>4.8775</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>1.1334</t>
+          <t>1.1246</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3604,12 +3604,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>

--- a/Tables/Regional- Appendix.xlsx
+++ b/Tables/Regional- Appendix.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -3596,7 +3596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3606,7 +3606,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -3708,7 +3708,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H5" s="5" t="n"/>
@@ -3860,7 +3860,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Los Alamos and Pajarito Canyons</t>
+          <t>Los Alamos Canyon</t>
         </is>
       </c>
       <c r="H10" s="5" t="n"/>
@@ -4102,43 +4102,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>R-19 S5</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr"/>
-      <c r="E17" s="1" t="inlineStr"/>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>1582.6 - 1589.8</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>7/12/01</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-19 S6</t>
+          <t>R-19 S5</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -4155,24 +4129,24 @@
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1726.8 - 1733.9</t>
+          <t>1582.6 - 1589.8</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>3.2367</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>5/28/09</t>
+          <t>7/12/01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R-19 S7</t>
+          <t>R-19 S6</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -4189,92 +4163,92 @@
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>1832.4 - 1839.5</t>
+          <t>1726.8 - 1733.9</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3.2367</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>3/29/01</t>
+          <t>5/28/09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R-20 S3</t>
+          <t>R-19 S7</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>1328.8 - 1336.5</t>
+          <t>1832.4 - 1839.5</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>5/5/04</t>
+          <t>3/29/01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R-22 S1</t>
+          <t>R-20 S3</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr"/>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>872.3 - 914.2</t>
+          <t>1328.8 - 1336.5</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>6/27/05</t>
+          <t>5/5/04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-22 S2</t>
+          <t>R-22 S1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -4291,24 +4265,24 @@
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>947 - 988.9</t>
+          <t>872.3 - 914.2</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>12/3/01</t>
+          <t>6/27/05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-22 S3</t>
+          <t>R-22 S2</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -4325,24 +4299,24 @@
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>1272.2 - 1278.9</t>
+          <t>947 - 988.9</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>6/21/01</t>
+          <t>12/3/01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R-22 S4</t>
+          <t>R-22 S3</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -4359,24 +4333,24 @@
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>1378.2 - 1384.9</t>
+          <t>1272.2 - 1278.9</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>3/22/07</t>
+          <t>6/21/01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-22 S5</t>
+          <t>R-22 S4</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -4393,94 +4367,129 @@
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>1447.3 - 1452.3</t>
+          <t>1378.2 - 1384.9</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>17.1589</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>5/17/09</t>
+          <t>3/22/07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-32 S3</t>
+          <t>R-22 S5</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>972.9 - 980.6</t>
+          <t>1447.3 - 1452.3</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>17.1589</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>8/30/06</t>
+          <t>5/17/09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-54 S1</t>
+          <t>R-32 S3</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.83609</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.25544</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
+          <t>972.9 - 980.6</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>8/30/06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>R-54 S1</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>35.83609</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>-106.25544</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr"/>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
           <t>830 - 840</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H28" s="1" t="inlineStr">
         <is>
           <t>2/15/10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
